--- a/Luban/Config/Datas/objectPool.xlsx
+++ b/Luban/Config/Datas/objectPool.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2023UnityFile\ARPG_2023\Luban\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\WGame\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560EE380-0AEF-4C66-A10F-D2DD5CE8581C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564BB59A-42DC-43A6-8336-8A8659CCBE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -630,7 +630,7 @@
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G1" sqref="G1:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/Luban/Config/Datas/objectPool.xlsx
+++ b/Luban/Config/Datas/objectPool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\WGame\Client\Luban\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\WGame\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564BB59A-42DC-43A6-8336-8A8659CCBE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942BD524-6CD0-44AD-AF0D-8162FE583184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -350,6 +350,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -630,27 +631,27 @@
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I7"/>
+      <selection activeCell="B10" sqref="B10:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" customWidth="1"/>
-    <col min="2" max="2" width="6.796875" customWidth="1"/>
-    <col min="3" max="3" width="20.265625" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
     <col min="4" max="4" width="38.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.53125" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="28.53125" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="13.1328125" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="23.86328125" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="14.19921875" customWidth="1"/>
+    <col min="13" max="13" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -699,7 +700,7 @@
       <c r="AH1"/>
       <c r="AI1"/>
     </row>
-    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -738,7 +739,7 @@
       <c r="AH2"/>
       <c r="AI2"/>
     </row>
-    <row r="3" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -787,7 +788,7 @@
       <c r="AH3"/>
       <c r="AI3"/>
     </row>
-    <row r="4" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -826,7 +827,7 @@
       <c r="AH4"/>
       <c r="AI4"/>
     </row>
-    <row r="5" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -875,7 +876,7 @@
       <c r="AH5"/>
       <c r="AI5"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0</v>
       </c>
@@ -894,7 +895,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -913,7 +914,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2</v>
       </c>
@@ -932,7 +933,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>3</v>
       </c>
@@ -951,29 +952,31 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C10" s="20"/>
+      <c r="E10" s="20"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G13" s="5"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G14" s="5"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>

--- a/Luban/Config/Datas/objectPool.xlsx
+++ b/Luban/Config/Datas/objectPool.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\WGame\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942BD524-6CD0-44AD-AF0D-8162FE583184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EE3BAF-C67D-42F4-8679-9967F1DC627C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -158,6 +158,14 @@
   </si>
   <si>
     <t>红色骷髅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器_胶囊体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CapsuleTrigger</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -631,7 +639,7 @@
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:F10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -953,8 +961,21 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>

--- a/Luban/Config/Datas/objectPool.xlsx
+++ b/Luban/Config/Datas/objectPool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\WGame\Client\Luban\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\WGame\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EE3BAF-C67D-42F4-8679-9967F1DC627C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5C4222-F55B-48EA-B50D-CA1FF2C59ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,11 +161,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>触发器_胶囊体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CapsuleTrigger</t>
+    <t>火球</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>eff_fireball</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -317,7 +317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -358,7 +358,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -639,27 +638,27 @@
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" customWidth="1"/>
+    <col min="2" max="2" width="6.796875" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" customWidth="1"/>
     <col min="4" max="4" width="38.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.53125" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="28.5546875" customWidth="1"/>
+    <col min="7" max="7" width="28.53125" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.1328125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="23.88671875" customWidth="1"/>
+    <col min="11" max="11" width="23.86328125" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="14.21875" customWidth="1"/>
+    <col min="13" max="13" width="14.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -708,7 +707,7 @@
       <c r="AH1"/>
       <c r="AI1"/>
     </row>
-    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -747,7 +746,7 @@
       <c r="AH2"/>
       <c r="AI2"/>
     </row>
-    <row r="3" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -796,7 +795,7 @@
       <c r="AH3"/>
       <c r="AI3"/>
     </row>
-    <row r="4" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -835,7 +834,7 @@
       <c r="AH4"/>
       <c r="AI4"/>
     </row>
-    <row r="5" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -884,7 +883,7 @@
       <c r="AH5"/>
       <c r="AI5"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>0</v>
       </c>
@@ -903,7 +902,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>1</v>
       </c>
@@ -922,7 +921,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>2</v>
       </c>
@@ -941,7 +940,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>3</v>
       </c>
@@ -960,17 +959,17 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="b">
@@ -979,25 +978,25 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.4">
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.4">
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.4">
       <c r="G13" s="5"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.4">
       <c r="G14" s="5"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.4">
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>

--- a/Luban/Config/Datas/objectPool.xlsx
+++ b/Luban/Config/Datas/objectPool.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\WGame\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5C4222-F55B-48EA-B50D-CA1FF2C59ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A78367-18FB-402F-997E-839611C658A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -110,22 +110,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Res.PoolType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameObject</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>needCache</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -166,6 +150,14 @@
   </si>
   <si>
     <t>eff_fireball</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fist</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -674,9 +666,6 @@
       <c r="E1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>18</v>
-      </c>
       <c r="G1" s="14"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -715,7 +704,6 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -760,10 +748,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -803,7 +788,6 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -848,10 +832,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -893,10 +874,7 @@
       <c r="D6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="b">
+      <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="L6" s="12"/>
@@ -907,15 +885,12 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="b">
+      <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="L7" s="12"/>
@@ -926,15 +901,12 @@
         <v>2</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="b">
+        <v>18</v>
+      </c>
+      <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="L8" s="12"/>
@@ -945,15 +917,12 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="b">
+        <v>20</v>
+      </c>
+      <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="L9" s="12"/>
@@ -964,25 +933,36 @@
         <v>4</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="b">
+        <v>24</v>
+      </c>
+      <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
